--- a/filtration_pipeline/results/filter_s2.xlsx
+++ b/filtration_pipeline/results/filter_s2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The specification requires implementing Armstrong number detection with digit extraction and cube calculations, testing mathematical reasoning and implementation skills beyond trivial logic.</t>
+          <t>This specification requires implementing Armstrong number detection for 3-digit numbers, involving digit extraction, exponentiation, and mathematical reasoning that meaningfully tests programming skills.</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The specification requires implementing an efficient algorithm to check if an array is sorted, which involves non-trivial logic to determine the correct return condition and potentially optimize for early termination when unsorted elements are found.</t>
+          <t>This specification requires implementing a non-trivial algorithm to check if an array is sorted, involving quantified logic reasoning and the need to find counterexamples when the array is not sorted.</t>
         </is>
       </c>
     </row>
@@ -517,19 +517,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Element-wise multiplication of two sequences requires proper indexing, bounds checking, and sequence construction - a meaningful algorithmic challenge.</t>
+          <t>This specification requires element-wise multiplication of two sequences, which tests array/sequence manipulation, loop iteration, and basic arithmetic operations in a non-trivial way.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DafnyProjects_tmp_tmp2acw_s4s_partitionOddEven_no_hints.dfy</t>
+          <t>Clover_modify_2d_array_no_hints.dfy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/DafnyProjects_tmp_tmp2acw_s4s_partitionOddEven_no_hints.dfy</t>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_modify_2d_array_no_hints.dfy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This specification requires implementing a partitioning algorithm with non-trivial invariants, ensuring both permutation preservation and the ordering constraint that all odd numbers precede even numbers.</t>
+          <t>This specification involves complex array manipulation with nested arrays, requires understanding of modifies clauses, old expressions, and careful reasoning about which elements change versus remain unchanged across multiple dimensions.</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>This specification requires understanding bitwise XOR operations on sequences of bit vectors, proper indexing, and maintaining sequence length invariants - a meaningful test of implementation skills.</t>
+          <t>This specification requires implementing element-wise bitwise XOR on sequences of 32-bit vectors, which tests sequence manipulation, bitvector operations, and loop invariant reasoning.</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The specification is too simple - it only requires implementing absolute value and array mapping, which are trivial operations that don't meaningfully test reasoning or algorithmic thinking.</t>
+          <t>The specification is too simple - it only requires applying absolute value to each array element, which is a trivial mapping operation that doesn't meaningfully test programming ability.</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This specification requires finding the shortest subsequence in a sequence of sequences, which involves iteration, comparison logic, and handling multiple valid solutions - a non-trivial algorithmic problem suitable for testing implementation skills.</t>
+          <t>This specification requires finding the shortest subsequence among a sequence of sequences, which involves meaningful comparison logic and handling of nested data structures.</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Non-trivial sequence manipulation requiring careful index management and understanding of interleaving patterns.</t>
+          <t>This specification requires understanding sequence manipulation, mathematical relationships between indices, and implementing a non-trivial interleaving pattern that tests algorithmic thinking.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>This specification requires implementing string filtering logic with non-trivial postconditions that ensure correct character removal, order preservation, and completeness - challenging enough to test reasoning about string operations and quantified properties.</t>
+          <t>The specification requires understanding set membership, string manipulation, and maintaining character order while filtering, which is non-trivial and tests important algorithmic reasoning skills.</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,4099 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The binary search specification requires implementing a classic algorithm with non-trivial loop invariants, proper handling of array bounds, and maintaining the sorted property relationship between the search value and array elements.</t>
+          <t>Binary search is a classic algorithmic problem that requires understanding of sorted arrays, loop invariants, termination conditions, and precise index management - making it an excellent benchmark for testing specification implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AssertivePrograming_tmp_tmpwf43uz0e_MergeSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/AssertivePrograming_tmp_tmpwf43uz0e_MergeSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>This specification presents a non-trivial merge sort implementation challenge with proper invariants, predicates, and helper lemmas that require sophisticated reasoning about array sorting, multisets, and loop invariants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_572_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_572_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a deduplication algorithm with two non-trivial constraints: preserving all unique elements from the input array and ensuring no duplicates in the output sequence, which tests algorithmic thinking and loop invariant reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AssertivePrograming_tmp_tmpwf43uz0e_DivMode_Unary_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/AssertivePrograming_tmp_tmpwf43uz0e_DivMode_Unary_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>This is a challenging specification requiring implementation of iterative division for unary numbers with proper loop invariants and verification annotations, testing understanding of both algorithmic implementation and formal verification techniques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>dafny-exercise_tmp_tmpouftptir_appendArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-exercise_tmp_tmpouftptir_appendArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The specification requires implementing array concatenation with proper memory allocation and element copying, which tests understanding of array operations, indexing, and postcondition satisfaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MFES_2021_tmp_tmpuljn8zd9_TheoreticalClasses_Power_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/MFES_2021_tmp_tmpuljn8zd9_TheoreticalClasses_Power_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>The specification lacks any functional definition for the base power function, making it impossible to verify correctness of implementations without defining the mathematical relationship x^n represents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_433_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_433_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a universal quantifier check with proper handling of the logical negation, testing understanding of array bounds, quantifiers, and boolean logic relationships.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>dafl_tmp_tmp_r3_8w3y_dafny_examples_uiowa_fibonacci_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafl_tmp_tmp_r3_8w3y_dafny_examples_uiowa_fibonacci_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>The specification only requires implementing the Fibonacci function which is a standard, well-known algorithm that doesn't meaningfully test reasoning about complex invariants, data structures, or non-trivial correctness properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_vampire project_original_Searching_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_vampire project_original_Searching_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>This is a trivial linear search specification that tests only basic array traversal and element comparison, which is too simple to meaningfully evaluate a model's programming capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_310_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_310_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>This is a trivial conversion between string and character array with a straightforward one-to-one mapping that requires no algorithmic thinking or complex logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Clover_canyon_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_canyon_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>This specification requires finding the minimum absolute difference between elements from two sorted arrays, which is a non-trivial algorithmic problem that tests understanding of sorted array properties, optimization, and careful reasoning about minimization constraints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Clover_two_sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_two_sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>This is a well-specified two-sum problem that requires implementing an efficient algorithm with non-trivial loop invariants and careful indexing logic to find the lexicographically first valid pair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SENG2011_tmp_tmpgk5jq85q_exam_ex2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/SENG2011_tmp_tmpgk5jq85q_exam_ex2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>This specification requires finding the index of the first occurrence of the minimum element in an array, which involves non-trivial logic combining array traversal, minimum finding, and handling duplicate values correctly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_461_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_461_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The specification is incomplete with an empty predicate body for IsUpperCase, making it impossible to implement CountUppercase meaningfully without defining what constitutes an uppercase character.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Dafny-demo_tmp_tmpkgr_dvdi_Dafny_BinarySearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-demo_tmp_tmpkgr_dvdi_Dafny_BinarySearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The sorted predicate is empty (missing implementation), making the specification incomplete and unusable without first defining what "sorted" means.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_advanced examples_MatrixMultiplication_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_advanced examples_MatrixMultiplication_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>This specification implements matrix multiplication with proper dimensional constraints and postconditions, requiring non-trivial understanding of 2D array indexing, mathematical relationships between matrix dimensions, and the dot product computation inherent in matrix multiplication.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Clover_copy_part_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_copy_part_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>This specification requires implementing array copying with proper bounds checking and ensuring specific segments are preserved/copied correctly, which tests meaningful array manipulation and reasoning about array slices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Clover_longest_prefix_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_longest_prefix_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>This specification requires finding the longest common prefix of two strings, which involves non-trivial logic to compare characters position by position and determine the correct stopping point, making it a meaningful test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>dafny-rope_tmp_tmpl4v_njmy_Rope_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-rope_tmp_tmpl4v_njmy_Rope_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>This is a comprehensive rope data structure specification with non-trivial operations like split, concat, insert, delete, and substring that require complex invariant maintenance and ghost state reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_426_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_426_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>This specification is too simple - it's a basic filtering operation that can be implemented with a straightforward loop and conditional check, requiring minimal algorithmic thinking or complex reasoning about invariants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_algorithms and leetcode_lib_seq_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_algorithms and leetcode_lib_seq_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Many functions (ToSet, substring1, isSubstring, IsPrefix, IsSuffix, reverse, distinct) have trivial or empty bodies despite having meaningful specifications, but most lemmas are also trivial proofs about basic sequence properties that don't require substantial reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Clover_reverse_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_reverse_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Classic array reversal with proper specification using old() and quantified postcondition, requires understanding of array manipulation and index arithmetic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FlexWeek_tmp_tmpc_tfdj_3_reverse_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/FlexWeek_tmp_tmpc_tfdj_3_reverse_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>This is a well-designed specification that requires implementing array reversal iteratively, with clear preconditions, postconditions, and meaningful constraints that test loop construction and array manipulation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_574_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_574_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The specification is too simple, requiring only a direct mathematical formula calculation with no algorithmic complexity or interesting verification challenges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Programmverifikation-und-synthese_tmp_tmppurk6ime_example_DafnyIntro_01_Simple_Loops_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Programmverifikation-und-synthese_tmp_tmppurk6ime_example_DafnyIntro_01_Simple_Loops_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Requires implementing mathematical formulas with loop invariants - tests understanding of inductive reasoning and Dafny's verification capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_599_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_599_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Non-trivial mathematical relationship requiring understanding of arithmetic series formula and proper handling of integer/real conversions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ProjectosCVS_tmp_tmp_02_gmcw_Handout 1_CVS_handout1_55754_55780_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/ProjectosCVS_tmp_tmp_02_gmcw_Handout 1_CVS_handout1_55754_55780_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>The specifications are too basic - they are essentially restating mathematical definitions (multiplication and division) without requiring any algorithmic insight or complex reasoning to implement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>dafny-duck_tmp_tmplawbgxjo_p4_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-duck_tmp_tmplawbgxjo_p4_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>This specification is too simple as it only requires concatenating two arrays, which is a trivial operation that doesn't meaningfully test programming ability or reasoning skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dafny-duck_tmp_tmplawbgxjo_p3_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-duck_tmp_tmplawbgxjo_p3_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a maximum-finding algorithm with proper loop invariants and bounds checking, testing understanding of array traversal, quantified assertions, and the relationship between algorithmic correctness and specification satisfaction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_472_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_472_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>This specification requires understanding array iteration, consecutive number detection, and existential quantification - a non-trivial task that meaningfully tests implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>dafny-exercises_tmp_tmp5mvrowrx_leetcode_26-remove-duplicates-from-sorted-array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-exercises_tmp_tmp5mvrowrx_leetcode_26-remove-duplicates-from-sorted-array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>This specification requires implementing an in-place duplicate removal algorithm on a sorted array with non-trivial invariants about preserving all unique elements and maintaining correctness properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_304_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_304_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>This specification requires understanding array rotation mechanics and modular arithmetic to correctly implement the index transformation, making it a meaningful test of programming comprehension.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Clover_even_list_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_even_list_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>This specification requires implementing array filtering with order preservation, involving complex postconditions about element membership, evenness properties, and maintaining relative ordering from the original array.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_273_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_273_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Clear specification requiring element-wise subtraction of two sequences with proper indexing and length constraints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SENG2011_tmp_tmpgk5jq85q_p1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/SENG2011_tmp_tmpgk5jq85q_p1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Trivial array reversal with straightforward loop-based implementation that doesn't meaningfully test reasoning abilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Dafny-Projects_tmp_tmph399drhy_p2_arraySplit_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-Projects_tmp_tmph399drhy_p2_arraySplit_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>The specification requires implementing array splitting with non-trivial constraints ensuring both subarrays are strictly smaller than the original when length &gt; 1, testing array allocation, indexing, and length reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Software-Verification_tmp_tmpv4ueky2d_Counting Bits_counting_bits_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Software-Verification_tmp_tmpv4ueky2d_Counting Bits_counting_bits_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>The specification requires implementing a non-trivial algorithm to count bits in binary representations with a recursive relationship, testing understanding of bit manipulation and dynamic programming patterns.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_460_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_460_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>This specification requires understanding nested sequences, quantified expressions, and implementing a non-trivial mapping operation that extracts the first element from each subsequence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_dafny2_Intervals_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_dafny2_Intervals_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>This specification defines non-trivial binary search-like operations (RoundDown/RoundUp) with complex postconditions involving quantified properties over array indices, requiring sophisticated algorithmic reasoning to implement correctly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_261_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_261_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>The specification requires element-wise division of two sequences with proper length matching and division-by-zero prevention, testing loop construction, indexing, and precondition handling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>veri-sparse_tmp_tmp15fywna6_dafny_spmv_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/veri-sparse_tmp_tmp15fywna6_dafny_spmv_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>This specification implements sparse matrix-vector multiplication using compressed sparse row format, requiring understanding of sparse data structures, array indexing relationships, and mathematical operations - sufficiently complex for meaningful testing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HATRA-2022-Paper_tmp_tmp5texxy8l_copilot_verification_Binary Search_binary_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/HATRA-2022-Paper_tmp_tmp5texxy8l_copilot_verification_Binary Search_binary_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>The helper predicates (sorted, distinct, not_found, found) are empty and lack bodies, making the specification incomplete and unusable without significant modification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>test-generation-examples_tmp_tmptwyqofrp_IntegerSet_dafny_IntegerSet_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/test-generation-examples_tmp_tmptwyqofrp_IntegerSet_dafny_IntegerSet_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>This specification provides a comprehensive set data structure with non-trivial operations like set intersection and union that require careful implementation to maintain invariants about uniqueness and proper element membership.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Dafny_Verify_tmp_tmphq7j0row_AI_agent_verify_examples_DoubleArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Verify_tmp_tmphq7j0row_AI_agent_verify_examples_DoubleArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>The specification is too simple - it only requires iterating through an array and performing basic arithmetic multiplication, which doesn't meaningfully test programming logic or problem-solving skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny4_ClassRefinement_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny4_ClassRefinement_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>This specification uses advanced Dafny features (abstract modules, refinement, ghost variables) but the actual computational problem is trivial - implementing a simple counter with increment and get operations, which requires minimal algorithmic reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Dafny-Exercises_tmp_tmpjm75muf__Session2Exercises_ExerciseSquare_root_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-Exercises_tmp_tmpjm75muf__Session2Exercises_ExerciseSquare_root_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Three methods computing integer square root with different complexity requirements - tests ability to implement distinct algorithmic approaches (linear search, binary search, Newton's method) for the same mathematical specification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_627_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_627_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>This specification requires finding the smallest non-negative integer not in a sorted sequence, which involves understanding sequence membership, bounds reasoning, and the mathematical concept of finding gaps in ordered data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_62_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_62_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a minimum-finding algorithm with proper loop invariants and reasoning about array bounds, quantifiers, and the relationship between existence and universal properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_632_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_632_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Complex specification with multiple challenging postconditions including permutation preservation, relative ordering constraints, and zero movement logic that requires sophisticated algorithmic reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>stunning-palm-tree_tmp_tmpr84c2iwh_ch8_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/stunning-palm-tree_tmp_tmpr84c2iwh_ch8_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>These are substantial sorting algorithm specifications with complex invariants involving ordering, element preservation, and inductive proofs that require sophisticated reasoning about data structures and their properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_dafny4_MonadicLaws_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_dafny4_MonadicLaws_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>This specification involves implementing monadic operations (Bind, append) and proving fundamental algebraic laws (associativity, identity, distributivity) which requires sophisticated understanding of functional programming concepts and mathematical reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Dafny-VMC_tmp_tmpzgqv0i1u_src_Math_Helper_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-VMC_tmp_tmpzgqv0i1u_src_Math_Helper_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>This is a module of helper lemmas and basic mathematical utilities rather than a meaningful programming problem that tests implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_algorithms and leetcode_examples_relativeOrder_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_algorithms and leetcode_examples_relativeOrder_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>The specification has logical errors and inconsistencies that make it unsuitable - the second ensures clause is trivially true and meaningless, and the third clause appears to have formatting issues and unclear semantics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_594_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_594_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>This specification requires finding the first even and first odd numbers in an array and computing their difference, with non-trivial loop invariants and index management to prove the postcondition about the ordering of elements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_603_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_603_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>This specification only requires returning multiples of 3 up to n in ascending order, which is too straightforward and doesn't provide meaningful algorithmic complexity to test implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>dafleet_tmp_tmpa2e4kb9v_0001-0050_0005-longest-palindromic-substring_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafleet_tmp_tmpa2e4kb9v_0001-0050_0005-longest-palindromic-substring_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>This is a substantial algorithmic problem with complex correctness requirements involving palindrome detection, optimization constraints, and sophisticated invariants that would meaningfully test a model's verification capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Clover_binary_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_binary_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>This is a well-specified binary search problem that requires implementing an efficient O(log n) algorithm with precise loop invariants and bounds checking, making it a good test of algorithmic reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Correctness_tmp_tmpwqvg5q_4_MethodCalls_q1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Correctness_tmp_tmpwqvg5q_4_MethodCalls_q1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>The specification defines the Fusc function through lemmas but provides no actual function body or meaningful computational challenge - it's just an empty method with a postcondition that trivially requires implementing the recursive definition given in the lemmas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>stunning-palm-tree_tmp_tmpr84c2iwh_ch10_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/stunning-palm-tree_tmp_tmpr84c2iwh_ch10_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>This specification provides complete implementations for all functions (Empty, IsEmpty, Insert, RemoveMin, DeleteMin, ReplaceRoot) - there are no function bodies missing that would test a model's ability to implement complex data structure operations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Clover_find_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_find_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>This is a well-specified linear search that requires implementing the algorithm to find the first occurrence of a key, with proper handling of the not-found case and non-trivial loop invariants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_14_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_14_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>This is a trivial arithmetic calculation that directly translates the mathematical formula without requiring any algorithmic thinking or problem-solving skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_586_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_586_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>This specification requires understanding sequence indexing, modular arithmetic for rotation, and maintaining sequence length - a non-trivial implementation challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_733_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_733_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>This specification requires implementing binary search on a sorted array, which is a non-trivial algorithmic problem that tests understanding of loop invariants, bounds checking, and efficient search strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Clover_min_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_min_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>This is a trivial array minimum problem that can be solved with a simple loop - too basic to meaningfully test implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_644_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_644_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>These are non-trivial array manipulation problems that require understanding of indexing, bounds checking, and partial vs complete reversal - good tests of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_616_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_616_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>This specification requires understanding array operations, modulo arithmetic, and careful handling of preconditions to avoid division by zero, making it a meaningful test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Clover_is_palindrome_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_is_palindrome_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>This specification requires implementing palindrome checking logic with proper indexing and bounds handling, making it a good test of basic algorithmic thinking.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Dafny_tmp_tmp0wu8wmfr_tests_Search1000_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_tmp_tmp0wu8wmfr_tests_Search1000_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>These specifications represent non-trivial binary search variants with interesting mathematical constraints (power-of-2 sizes) that require sophisticated reasoning about array bounds, sortedness invariants, and the Is2Pow predicate relationship.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_743_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_743_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>The specification requires implementing a non-trivial array rotation algorithm with proper modular arithmetic handling and boundary conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HATRA-2022-Paper_tmp_tmp5texxy8l_copilot_verification_Two Sum_two_sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/HATRA-2022-Paper_tmp_tmp5texxy8l_copilot_verification_Two Sum_two_sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>This is a classic algorithmic problem that requires finding two indices whose values sum to a target, with non-trivial constraints ensuring the solution exists and returned indices are valid and distinct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Formal_Verification_With_Dafny_tmp_tmp5j79rq48_LimitedStack_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Formal_Verification_With_Dafny_tmp_tmp5j79rq48_LimitedStack_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>This specification defines a non-trivial LimitedStack class with multiple methods requiring complex invariant reasoning, array manipulation, and boundary condition handling that would meaningfully test implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_142_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_142_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>This specification requires understanding set comprehensions, cardinality operations, and multi-sequence coordination to count positions where three sequences have identical values.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DafnyPrograms_tmp_tmp74_f9k_c_invertarray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/DafnyPrograms_tmp_tmp74_f9k_c_invertarray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>This is a trivial array reversal problem that requires only a simple loop with index swapping - too basic to meaningfully test specification understanding or algorithmic reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Software-Verification_tmp_tmpv4ueky2d_Valid Palindrome_valid_panlindrome_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Software-Verification_tmp_tmpv4ueky2d_Valid Palindrome_valid_panlindrome_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a palindrome checker with a non-trivial postcondition that involves quantified reasoning over array indices, testing understanding of array bounds and symmetric comparison logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_751_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_751_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a non-trivial algorithm to check the min-heap property, involving array indexing, heap structure understanding, and logical reasoning about parent-child relationships in a binary heap representation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SiLemma_tmp_tmpfxtryv2w_utils_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/SiLemma_tmp_tmpfxtryv2w_utils_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>These are all basic set theory lemmas with straightforward proofs that don't require complex algorithmic reasoning or program verification skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_578_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_578_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>The specification requires implementing a non-trivial interleaving pattern across three sequences with precise indexing logic and length constraints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>llm-verified-eval_tmp_tmpd2deqn_i_dafny_0_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/llm-verified-eval_tmp_tmpd2deqn_i_dafny_0_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>The specification requires implementing a non-trivial algorithm to check if any two distinct elements in a sequence are within a threshold distance, involving nested iteration and mathematical reasoning about absolute differences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CVS-handout1_tmp_tmptm52no3k_2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/CVS-handout1_tmp_tmptm52no3k_2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>The functions have empty bodies and only contain basic list operations (length, membership, indexing) that are too fundamental and straightforward to meaningfully test implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_VSI-Benchmarks_b2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_VSI-Benchmarks_b2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>This is a well-specified binary search problem that requires implementing a non-trivial algorithm with proper loop invariants, bounds checking, and correctness proofs - a classic benchmark for formal verification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>dafny-exercise_tmp_tmpouftptir_maxArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-exercise_tmp_tmpouftptir_maxArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>This is a standard maximum element problem that is too simple and straightforward to meaningfully test a model's programming abilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Clover_below_zero_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_below_zero_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a running sum calculation with early termination logic and complex array reasoning about cumulative operations and negative detection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_variant examples_SumOfCubes_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_variant examples_SumOfCubes_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>This specification involves mathematical relationships between sum of cubes, Gaussian sums, and recursive formulations that require non-trivial reasoning about mathematical identities and loop invariants to implement correctly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>dafny_examples_tmp_tmp8qotd4ez_leetcode_0001-two-sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny_examples_tmp_tmp8qotd4ez_leetcode_0001-two-sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>This is a well-specified two-sum problem that requires non-trivial algorithmic thinking, proper loop invariants, and careful handling of the early termination condition with meaningful postconditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_760_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_760_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>The specification requires implementing logic to check if all elements in an array are identical, involving quantified reasoning over array indices and understanding the relationship between universal and existential quantifiers in the postconditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_610_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_610_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>This specification requires implementing array element removal with precise index handling, memory management, and maintaining correct element ordering - a non-trivial task that tests multiple programming concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_732_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_732_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>The predicate IsSpaceCommaDot has an empty body, making the specification incomplete and ambiguous about which characters should be replaced.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Dafny-experiences_tmp_tmp150sm9qy_dafny_started_tutorial_dafny_tutorial_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-experiences_tmp_tmp150sm9qy_dafny_started_tutorial_dafny_tutorial_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Finding the maximum element in an array requires implementing a loop with proper invariants to maintain correctness, making it a good test of basic algorithmic reasoning and loop verification skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>FlexWeek_tmp_tmpc_tfdj_3_ex4_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/FlexWeek_tmp_tmpc_tfdj_3_ex4_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>This specification requires implementing array concatenation with multiple complex postconditions involving sequence operations, multisets, and quantified properties that test understanding of array indexing relationships.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Dafny_Verify_tmp_tmphq7j0row_Generated_Code_Minimum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Verify_tmp_tmphq7j0row_Generated_Code_Minimum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a non-trivial algorithm to find the minimum element in an array, with meaningful preconditions and postconditions that test understanding of quantifiers and array reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>verified-using-dafny_tmp_tmp7jatpjyn_longestZero_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/verified-using-dafny_tmp_tmp7jatpjyn_longestZero_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a non-trivial algorithm to find the longest contiguous subsequence of zeros in an array, with complex postconditions that ensure both correctness of the found sequence and optimality (no longer sequence exists).</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_605_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_605_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>This is a classic algorithmic problem that requires implementing an efficient primality test, testing understanding of mathematical reasoning and loop invariants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Dafny-Exercises_tmp_tmpjm75muf__Session3Exercises_ExerciseMaximum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-Exercises_tmp_tmpjm75muf__Session3Exercises_ExerciseMaximum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>The specifications involve non-trivial reasoning about array traversal, maximum finding with position constraints, and distinguishing between first/last occurrences of maximum values, which meaningfully tests implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_602_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_602_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>This specification requires implementing an algorithm to find the first character that appears multiple times in a string, with a complex postcondition that ensures the returned character is indeed the first one with duplicates and that all earlier pairs are distinct.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Clover_array_sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_array_sum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>This specification requires implementing element-wise array addition with proper memory allocation and index management, which tests meaningful programming skills beyond trivial logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_741_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_741_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>The specification requires understanding string indexing, quantifiers (forall/exists), and logical reasoning about when all characters are the same versus when they differ, making it a meaningful test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_week10_BoundedQueue_01_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_week10_BoundedQueue_01_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>This specification defines a bounded queue data structure with non-trivial invariants involving circular buffer management, abstract/concrete state relationships, and complex pre/postconditions that require sophisticated implementation strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MIEIC_mfes_tmp_tmpq3ho7nve_exams_mt2_19_p5_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/MIEIC_mfes_tmp_tmpq3ho7nve_exams_mt2_19_p5_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>This is a well-specified partitioning algorithm that requires understanding of array manipulation, pivot selection, in-place reordering, and maintaining multiset equality - sufficiently complex to test meaningful programming skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_3_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_3_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>The specification requires implementing a composite number checker by finding divisors, which involves non-trivial algorithmic thinking about efficiency and correctness of divisibility testing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_basic examples_BubbleSort_sol_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_basic examples_BubbleSort_sol_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>The predicates are empty (no body provided) making it impossible to implement the sorting algorithm without knowing what "sorted" means, and bubble sort is a trivial textbook algorithm that doesn't meaningfully test specification understanding.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_282_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_282_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>This is a trivial array operation that requires only a simple loop to subtract corresponding elements - too basic to meaningfully test programming ability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DafnyProjects_tmp_tmp2acw_s4s_Power_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/DafnyProjects_tmp_tmp2acw_s4s_Power_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>The specification lacks the actual definition of the power function and has empty method bodies, making it impossible to verify correctness or test implementation ability without fundamental changes to the specification itself.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>dafny-workout_tmp_tmp0abkw6f8_starter_ex12_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-workout_tmp_tmp0abkw6f8_starter_ex12_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>This specification requires implementing an algorithm to find the index of the maximum element in an array, which involves non-trivial reasoning about array traversal, comparison logic, and maintaining invariants to prove the postcondition that the returned index corresponds to a maximum element.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Clover_linear_search2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_linear_search2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>This specification requires understanding of array indexing, quantifiers, and the subtle logic of finding the first occurrence of an element, making it a good test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DafnyPrograms_tmp_tmp74_f9k_c_automaton_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/DafnyPrograms_tmp_tmp74_f9k_c_automaton_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a non-trivial cellular automaton with complex edge cases, neighbor handling, and multi-step state evolution that meaningfully tests algorithmic reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>cs245-verification_tmp_tmp0h_nxhqp_quicksort-partition_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/cs245-verification_tmp_tmp0h_nxhqp_quicksort-partition_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>This specification defines a non-trivial partitioning algorithm for quicksort with meaningful preconditions, postconditions including permutation preservation, and requires understanding of array manipulation and invariant reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_week8_CoffeeMaker2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_week8_CoffeeMaker2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>This specification presents a moderately complex object-oriented design with multiple interacting classes, ghost state management, representation invariants, and requires understanding of Dafny's modifies clauses, freshness conditions, and object relationships - providing meaningful implementation challenges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_allocated1_dafny0_fun-with-slices_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_allocated1_dafny0_fun-with-slices_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>The specification is too simple - it only requires basic array manipulation and sequence concatenation understanding without complex logic, algorithms, or reasoning about data structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Clover_double_array_elements_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_double_array_elements_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Simple but tests array modification, loop invariants, and understanding of old() expressions in postconditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_290_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_290_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Requires finding the sequence with maximum length among multiple sequences, involving quantified reasoning over collections and comparison logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>dafny_examples_tmp_tmp8qotd4ez_lib_math_DivMod_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny_examples_tmp_tmp8qotd4ez_lib_math_DivMod_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>The specification consists entirely of lemmas about basic arithmetic properties of division and modulo operations, which are trivial mathematical facts that don't require meaningful algorithmic thinking to prove.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Dafny-Exercises_tmp_tmpjm75muf__Session8Exercises_ExerciseInsertionSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-Exercises_tmp_tmpjm75muf__Session8Exercises_ExerciseInsertionSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>The predicate sorted_seg is empty (no body), making it impossible to implement InsertionSort meaningfully since the postcondition is undefined.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>llm-verified-eval_tmp_tmpd2deqn_i_dafny_5_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/llm-verified-eval_tmp_tmpd2deqn_i_dafny_5_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>This specification requires non-trivial reasoning about sequence construction, index mapping between input and output sequences, and handling edge cases like empty sequences, making it a good test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Dafny_Verify_tmp_tmphq7j0row_dataset_detailed_examples_SelectionSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Verify_tmp_tmphq7j0row_dataset_detailed_examples_SelectionSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a complete sorting algorithm with both correctness (sorted output) and preservation (same multiset of elements) properties, making it a meaningful test of algorithmic reasoning and loop invariant design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Clover_online_max_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_online_max_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>This specification requires finding the maximum in a prefix while also determining an optimal stopping point based on the online algorithm paradigm, involving complex logical reasoning about array bounds, maximum finding, and conditional stopping criteria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_625_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_625_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>This specification is too simple - it only requires swapping two array elements, which is a trivial programming task that doesn't meaningfully test specification understanding or implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_106_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_106_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>The specification requires understanding array-to-sequence conversion, length calculations, and two distinct indexing patterns for concatenation, making it a meaningful test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Software-Verification_tmp_tmpv4ueky2d_Remove Duplicates from Sorted Array_remove_duplicates_from_sorted_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Software-Verification_tmp_tmpv4ueky2d_Remove Duplicates from Sorted Array_remove_duplicates_from_sorted_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>The helper predicates is_sorted and is_sorted_and_distinct are empty, making the specification incomplete and unusable without defining these essential predicates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_advanced examples_Percentile_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_advanced examples_Percentile_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>This specification involves implementing percentile calculation with cumulative sums, requiring understanding of array indexing, real number arithmetic, and the relationship between partial sums and percentile thresholds - a non-trivial algorithmic problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>iron-sync_tmp_tmps49o3tyz_lib_Base_MapRemove_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/iron-sync_tmp_tmps49o3tyz_lib_Base_MapRemove_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>The specification is a straightforward map key removal operation with predictable postconditions that don't require complex reasoning or algorithmic insight to implement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_tutorial_maximum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_tutorial_maximum_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>The specification requires finding the maximum element in a non-empty sequence with proper postconditions ensuring the result is both in the sequence and greater than or equal to all elements, which is a meaningful algorithmic challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Clover_convert_map_key_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_convert_map_key_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a map key transformation with an injective function, involving quantified reasoning about domain preservation and value mapping, making it a meaningful test of specification understanding and implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_2_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>The InArray predicate is missing its body definition, making the specification incomplete and unusable without additional implementation details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_algorithms and leetcode_leetcode_validAnagram_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_algorithms and leetcode_leetcode_validAnagram_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>These are trivial wrapper functions around built-in Dafny operations (multiset conversion and equality) that require minimal logic to implement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_284_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_284_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>The specification requires checking array equality against a value with proper logical equivalence between the boolean result and quantified conditions, testing understanding of universal/existential quantifiers and their negation relationship.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Workshop_tmp_tmp0cu11bdq_Workshop_Answers_Question5_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Workshop_tmp_tmp0cu11bdq_Workshop_Answers_Question5_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>This specification requires implementing an in-place array reversal algorithm, which involves non-trivial index manipulation and loop invariants to prove correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Clover_update_map_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_update_map_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>This specification requires understanding map operations, precedence rules (m2 overrides m1), and complex quantified logic across multiple ensures clauses that must be satisfied simultaneously.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>feup-mfes_tmp_tmp6_a1y5a5_examples_SelectionSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/feup-mfes_tmp_tmp6_a1y5a5_examples_SelectionSort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>The specification includes meaningful algorithmic challenges: implementing selection sort with proper sorting and permutation properties, and finding minimum elements with correctness guarantees, requiring non-trivial loop invariants and verification techniques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_a3_search_findPositionOfIndex_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_a3_search_findPositionOfIndex_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>The specification is underspecified and contains logical inconsistencies - it doesn't clearly define what Position represents, uses confusing 1-based indexing, and the postconditions don't meaningfully constrain the behavior for a non-trivial programming task.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_776_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_776_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>The specification requires implementing both a vowel predicate and a method that counts characters with vowel neighbors on both sides, involving set comprehension and index bounds reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_170_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_170_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>The specification requires implementing both a recursive function and an iterative method with a non-trivial postcondition that connects them, testing understanding of array traversal, bounds checking, and specification relationships.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_vstte2012_Two-Way-Sort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_vstte2012_Two-Way-Sort_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>The two_way_sort method requires implementing a non-trivial partitioning algorithm that maintains loop invariants while preserving array permutation properties, making it a good test of specification understanding and implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Dafny_tmp_tmp0wu8wmfr_Heimaverkefni 2_BinarySearchDec_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_tmp_tmp0wu8wmfr_Heimaverkefni 2_BinarySearchDec_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>This specification requires implementing binary search on a reverse-sorted array, which involves non-trivial algorithmic thinking, loop invariant design, and precise boundary handling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny2_MajorityVote_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny2_MajorityVote_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>This specification implements the Boyer-Moore majority vote algorithm, which is a non-trivial problem requiring careful reasoning about loop invariants, ghost parameters, and mathematical properties of majority elements in sequences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DafnyProjects_tmp_tmp2acw_s4s_findMax_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/DafnyProjects_tmp_tmp2acw_s4s_findMax_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Classic array maximum problem with proper specification - non-trivial loop invariants and implementation required despite conceptual simplicity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>CVS-handout1_tmp_tmptm52no3k_1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/CVS-handout1_tmp_tmptm52no3k_1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>This specification involves non-trivial concepts including cumulative sums, prefix sum arrays, and the relationship between different sum operations, requiring understanding of array indexing, mathematical properties, and efficient query algorithms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_807_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_807_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>The specification is too simple - it's a straightforward linear search for the first odd number in an array, which doesn't meaningfully test advanced reasoning or algorithmic thinking beyond basic iteration and conditional logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>formal_verication_dafny_tmp_tmpwgl2qz28_Challenges_ex1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/formal_verication_dafny_tmp_tmpwgl2qz28_Challenges_ex1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>The specification has logical errors in the postconditions that make it inconsistent - the second ensures clause would require proving the existence of a mismatch when returning false, but this doesn't properly handle edge cases like empty arrays, making the specification fundamentally flawed rather than just challenging.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_dafny1_MatrixFun_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_dafny1_MatrixFun_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>These specifications involve non-trivial 2D array manipulations (horizontal mirroring and matrix transposition) that require careful index management and understanding of array bounds, making them good tests for implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Dafny_tmp_tmpmvs2dmry_pancakesort_findmax_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_tmp_tmpmvs2dmry_pancakesort_findmax_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>This specification requires implementing an algorithm to find the index of the maximum element in a bounded array range, with non-trivial postconditions ensuring correctness of the returned index, maximality property, and array immutability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>DafnyProjects_tmp_tmp2acw_s4s_longestPrefix_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/DafnyProjects_tmp_tmp2acw_s4s_longestPrefix_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>The specification requires implementing an algorithm to find the longest common prefix of two arrays, with well-defined postconditions that ensure correctness including boundary conditions and the maximality property.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_769_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_769_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>This specification requires implementing set difference with duplicate removal, involving sequence traversal, membership testing, and ensuring uniqueness - a non-trivial algorithmic challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny2_COST-verif-comp-2011-2-MaxTree-class_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny2_COST-verif-comp-2011-2-MaxTree-class_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a complex tree traversal algorithm with sophisticated invariant reasoning about ghost fields, representation sets, and proving both upper bound and existence properties for the maximum value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_401_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_401_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>The postcondition contains a contradiction: it requires result[i] == a[i] while also requiring result[i][j] == a[i][j] + b[i][j], which would only be satisfied if all elements of b are zero.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_454_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_454_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>This is a trivial string search problem that can be solved with a simple loop or built-in string methods, requiring no meaningful algorithmic thinking or complex reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Dafny_Programs_tmp_tmp99966ew4_lemma_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Programs_tmp_tmp99966ew4_lemma_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>The specification involves a non-trivial search algorithm with complex preconditions about array relationships, requiring sophisticated reasoning about loop invariants and the interplay between the lemma and main method.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Software-Verification_tmp_tmpv4ueky2d_Best Time to Buy and Sell Stock_best_time_to_buy_and_sell_stock_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Software-Verification_tmp_tmpv4ueky2d_Best Time to Buy and Sell Stock_best_time_to_buy_and_sell_stock_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>This is a classic algorithmic problem requiring non-trivial optimization to find maximum profit from stock prices, with meaningful constraints and a postcondition that captures the correctness requirement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_240_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_240_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>This specification requires understanding sequence manipulation, index arithmetic, and the non-trivial logic of replacing the last element of one sequence with an entire second sequence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_week10_ExtensibleArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Learning_Experience_tmp_tmpuxvcet_u_week8_12_week10_ExtensibleArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>This specification only declares method signatures and predicates without any implementation bodies or meaningful constraints - the ghost predicate Valid() and all methods have empty bodies, making it trivial to implement (just return arbitrary values or do nothing).</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny2_Classics_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny2_Classics_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>These specifications present meaningful algorithmic challenges: implementing factorial recursively and solving Hoare's partitioning problem, both requiring non-trivial reasoning about correctness properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>eth2-dafny_tmp_tmpcrgexrgb_src_dafny_utils_SetHelpers_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/eth2-dafny_tmp_tmpcrgexrgb_src_dafny_utils_SetHelpers_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>These are mathematical lemmas about set properties that require formal proofs rather than algorithmic implementations - they test proof construction abilities rather than programming logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_95_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_95_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>This specification requires finding the minimum length among nested sequences, which involves non-trivial iteration logic and understanding of quantified expressions with both universal and existential constraints.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Final-Project-Dafny_tmp_tmpmcywuqox_Attempts_Exercise6_Binary_Search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Final-Project-Dafny_tmp_tmpmcywuqox_Attempts_Exercise6_Binary_Search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>This is a classic binary search specification that requires non-trivial algorithmic reasoning to implement correctly, including loop invariants and bounds management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_470_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_470_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>The specification requires understanding array indexing, length relationships, and a mathematical pattern for pairwise operations, making it a good test of implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>dafny-language-server_tmp_tmpkir0kenl_Test_dafny2_COST-verif-comp-2011-1-MaxArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-language-server_tmp_tmpkir0kenl_Test_dafny2_COST-verif-comp-2011-1-MaxArray_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a maximum-finding algorithm with meaningful loop invariants and reasoning about array bounds and element relationships, making it a good test of systematic verification skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Dafny_Verify_tmp_tmphq7j0row_Fine_Tune_Examples_50_examples_BinarySearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Verify_tmp_tmphq7j0row_Fine_Tune_Examples_50_examples_BinarySearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Classic binary search with proper specification requiring sorted array invariant and precise position guarantees - tests algorithmic thinking and loop invariant reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>dafny-exercise_tmp_tmpouftptir_zapNegatives_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-exercise_tmp_tmpouftptir_zapNegatives_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Requires understanding array modification, conditional logic with old() expressions, and preservation of array length - good test of specification comprehension and implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Clover_has_close_elements_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_has_close_elements_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a non-trivial algorithm to check if any two distinct elements in a sequence are within a given threshold distance, involving nested loops, distance calculations, and logical reasoning about existence vs universal quantification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Dafny-Exercises_tmp_tmpjm75muf__Session10Exercises_ExerciseBarrier_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny-Exercises_tmp_tmpjm75muf__Session10Exercises_ExerciseBarrier_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a partitioning check with non-trivial quantifier reasoning over array segments, testing understanding of array bounds, nested quantifiers, and partition-based properties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Dafny_Verify_tmp_tmphq7j0row_Generated_Code_LinearSearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_Verify_tmp_tmphq7j0row_Generated_Code_LinearSearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a linear search with a predicate, involving array bounds checking, early termination logic, and universal quantification over array elements - a non-trivial algorithmic challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>dafny-exercise_tmp_tmpouftptir_reverse_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-exercise_tmp_tmpouftptir_reverse_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>String/array reversal with proper indexing and memory management is a classic algorithmic problem that tests understanding of array bounds, loop invariants, and specification translation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_728_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_728_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Simple element-wise addition specification that requires understanding sequence indexing, bounds checking, and postcondition verification - good for testing basic sequence manipulation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Dafny_tmp_tmpmvs2dmry_pancakesort_flip_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_tmp_tmpmvs2dmry_pancakesort_flip_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>The specification requires implementing array reversal for a subrange, which involves non-trivial index manipulation and boundary handling that would meaningfully test implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Clover_insert_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_insert_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>This specification requires implementing array insertion logic with careful index management, boundary checking, and maintaining invariants across three distinct regions of the array, making it a meaningful test of understanding preconditions, postconditions, and array manipulation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Clover_replace_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_replace_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>The specification requires implementing conditional array modification logic with proper handling of array bounds and state preservation, which meaningfully tests understanding of modifies clauses, old expressions, and quantified postconditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Dafny_tmp_tmp0wu8wmfr_Heimaverkefni 1_LinearSearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Dafny_tmp_tmp0wu8wmfr_Heimaverkefni 1_LinearSearch_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>The specification defines linear search with non-trivial postconditions that require understanding of both correctness (finding the element) and completeness (no occurrences after the found position), testing loop invariant design and recursive reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_447_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_447_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>This is a trivial array transformation that only requires a simple loop to cube each element, providing no meaningful verification challenge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_412_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_412_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>The specification is too simple - it only requires basic array filtering based on a trivial predicate (even numbers), which can be implemented with a straightforward loop and conditional check.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SENG2011_tmp_tmpgk5jq85q_ass2_ex1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/SENG2011_tmp_tmpgk5jq85q_ass2_ex1_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a string character swap operation with non-trivial preconditions, postconditions involving multisets, and careful handling of edge cases like empty strings and boundary conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Workshop_tmp_tmp0cu11bdq_Lecture_Answers_max_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Workshop_tmp_tmp0cu11bdq_Lecture_Answers_max_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a classic array maximum algorithm with proper loop invariants, bounds checking, and handling of empty arrays, making it a good test of basic verification skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Clover_max_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_max_array_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>This is a straightforward array maximum problem that can be solved with a simple loop - too basic to meaningfully test implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Final-Project-Dafny_tmp_tmpmcywuqox_Attempts_Exercise4_Find_Max_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Final-Project-Dafny_tmp_tmpmcywuqox_Attempts_Exercise4_Find_Max_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a classic algorithm with multiple related postconditions, testing understanding of array traversal, maintaining both position and value, and coordinating multiple ensures clauses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_618_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_618_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>This specification requires implementing element-wise division with proper sequence handling, length preservation, and division-by-zero safety checks, making it a good test of basic algorithmic implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>dafl_tmp_tmp_r3_8w3y_dafny_examples_uiowa_find_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafl_tmp_tmp_r3_8w3y_dafny_examples_uiowa_find_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>This specification requires implementing a linear search that finds the first occurrence of a key in an array, with complex postconditions ensuring correctness of both the found index and the "first occurrence" property, making it a meaningful test of specification understanding and loop invariant reasoning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_588_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_588_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>The specification relies on undefined helper functions Min and Max without providing their specifications, making it impossible to implement the main method without first defining these fundamental operations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_629_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_629_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>This specification is too straightforward - it's essentially filtering an array for even numbers, which is a basic programming exercise that doesn't meaningfully test advanced reasoning or implementation skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny4_ACL2-extractor_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Program-Verification-Dataset_tmp_tmpgbdrlnu__Dafny_from dafny main repo_dafny4_ACL2-extractor_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>This specification involves complex recursive data structures, list operations, and requires proving sophisticated mathematical properties about list extraction, reversal, and indexing relationships through multiple interconnected lemmas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_230_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_230_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Clear specification with meaningful logic - requires implementing string traversal with conditional character replacement based on space detection.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_436_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_436_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>The specification requires understanding array iteration, sequence construction, filtering logic, and proving dual inclusion properties (all output elements are negative and from input, all negative input elements are in output), making it a meaningful test of implementation and verification skills.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_262_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_262_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Requires understanding array slicing, sequence operations, and the relationship between array indices and sequence concatenation, which tests meaningful programming concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_86_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_86_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>This is a trivial mathematical formula implementation that requires no algorithmic thinking or complex reasoning - just direct translation of the formula.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_431_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_431_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>The specification requires implementing an algorithm to check if two arrays share any common elements, which involves nested iteration and early termination logic that meaningfully tests programming ability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Formal-Verification_tmp_tmpuyt21wjt_Dafny_strings3_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Formal-Verification_tmp_tmpuyt21wjt_Dafny_strings3_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>The predicates are completely empty (no body), making this essentially undefined specifications that cannot be meaningfully implemented or verified.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_424_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_424_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Non-trivial specification requiring understanding of sequence manipulation, string indexing, and the relationship between input and output sequences through extracting last characters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Clover_slope_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/Clover_slope_search_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>This specification defines a 2D matrix search problem with sorted rows and columns, requiring the implementation to find coordinates where a guaranteed-to-exist key is located - a non-trivial algorithmic challenge that meaningfully tests reasoning about 2D data structures and search strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_94_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_94_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>KEEP</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>The specification requires finding the first element of the sequence that has the minimum second element, which involves non-trivial logic for comparing across multiple sequences and extracting the correct value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>dafny-synthesis_task_id_554_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>/Users/cinnabon/Documents/MIT/UROP_2025/DafnyBench/DafnyBench/dataset/body_removed/dafny-synthesis_task_id_554_no_hints.dfy</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>TOSS</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>This specification is too simple - it only requires basic array traversal and filtering based on a trivial predicate (modulo operation), which doesn't meaningfully test advanced reasoning or algorithmic skills.</t>
         </is>
       </c>
     </row>
